--- a/Titus/Gurobi code/Compleet/Trips.xlsx
+++ b/Titus/Gurobi code/Compleet/Trips.xlsx
@@ -419,7 +419,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nieuwegein</t>
+          <t>Apeldoorn</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -427,7 +427,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nieuwegein</t>
+          <t>Apeldoorn</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -453,7 +453,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nieuwegein</t>
+          <t>Apeldoorn</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -461,11 +461,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nieuwegein</t>
+          <t>Apeldoorn</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -487,7 +487,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Apeldoorn</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -495,13 +495,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Apeldoorn</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -523,7 +521,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Hague</t>
+          <t>Enkhuizen</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -531,11 +529,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The Hague</t>
+          <t>Medemblik</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -557,15 +555,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Hague</t>
+          <t>Medemblik</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The Hague</t>
+          <t>Enkhuizen</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -591,7 +589,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The Hague</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -599,11 +597,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The Hague</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amersfort</t>
+          <t>Breda</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -669,11 +669,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Amersfort</t>
+          <t>Breda</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Amersfort</t>
+          <t>Breda</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -703,11 +703,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Amersfort</t>
+          <t>Breda</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Amersfort</t>
+          <t>Breda</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -737,11 +737,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Amersfort</t>
+          <t>Breda</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -763,19 +763,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Den Helder</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Den Helder</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -797,7 +799,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Den Helder</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -805,11 +807,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Den Helder</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -831,7 +833,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -839,13 +841,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Rotterdam</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -867,21 +867,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Rotterdam</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -898,24 +896,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Breda</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Breda</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -937,15 +937,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Breda</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Breda</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -971,15 +971,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Breda</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Breda</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1005,15 +1005,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Heerhugowaard</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Heerhugowaard</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1039,19 +1039,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Heerhugowaard</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Heerhugowaard</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1076,18 +1078,18 @@
           <t>Nijmegen</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Nijmegen</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+      <c r="G21" t="n">
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1099,31 +1101,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>truck0</t>
+          <t>truck1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t xml:space="preserve">Alkmaar </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t xml:space="preserve">Alkmaar </t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1145,21 +1145,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t xml:space="preserve">Alkmaar </t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t xml:space="preserve">Alkmaar </t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1181,19 +1179,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t xml:space="preserve">Alkmaar </t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t xml:space="preserve">Alkmaar </t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1215,19 +1213,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tilburg</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1249,19 +1249,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tilburg</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tilburg</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1278,22 +1280,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Trip0</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1319,21 +1319,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1355,19 +1353,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1389,7 +1387,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1397,11 +1395,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1423,19 +1421,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>'s-Hertogenbosch</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Oss</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1493,19 +1493,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Leiden</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1527,19 +1529,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>'s-Hertogenbosch</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1561,15 +1563,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>'s-Hertogenbosch</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Leiden</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1595,7 +1597,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>'s-Hertogenbosch</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1603,13 +1605,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>'s-Hertogenbosch</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1667,15 +1667,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Apeldoorn</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Apeldoorn</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Apeldoorn</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Apeldoorn</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Apeldoorn</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1743,11 +1743,13 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Apeldoorn</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1769,19 +1771,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1803,21 +1805,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ede</t>
+          <t>Den Helder</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ede</t>
+          <t>Den Helder</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ede</t>
+          <t>Den Helder</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Wageningen</t>
+          <t>Den Helder</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wageningen</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1987,11 +1987,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ede</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2013,17 +2013,15 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Tilburg</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2044,24 +2042,24 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Tilburg</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2078,24 +2076,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Hoorn</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Hoorn</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Hoorn</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2159,11 +2159,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Hoorn</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Hoorn</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Hoorn</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2255,21 +2255,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2281,29 +2279,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>truck3</t>
+          <t>truck2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Trip0</t>
+          <t>Trip2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hoorn</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hoorn</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2315,29 +2313,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>truck3</t>
+          <t>truck2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Trip0</t>
+          <t>Trip2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Hoorn</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Hoorn</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hoorn</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2367,11 +2367,13 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hoorn</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2393,7 +2395,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>The Hague</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2401,13 +2403,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>The Hague</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2429,19 +2429,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Schagen</t>
+          <t>The Hague</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Schagen</t>
+          <t>The Hague</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2463,15 +2463,15 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Schagen</t>
+          <t>The Hague</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Schagen</t>
+          <t>The Hague</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alkmaar </t>
+          <t>Heerhugowaard</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2541,11 +2541,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alkmaar </t>
+          <t>Heerhugowaard</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alkmaar </t>
+          <t>Heerhugowaard</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alkmaar </t>
+          <t>Heerhugowaard</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2601,15 +2601,15 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alkmaar </t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alkmaar </t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2643,13 +2643,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Leiden</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2671,21 +2669,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Leiden</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Leiden</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -2702,24 +2698,26 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Haarlem</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Haarlem</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>2</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -2736,24 +2734,26 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Haarlem</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Haarlem</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -2775,19 +2775,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Haarlem</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Haarlem</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2817,13 +2817,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Arnhem</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2845,17 +2843,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Arnhem</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Arnhem</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2871,29 +2867,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>truck4</t>
+          <t>truck3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Trip0</t>
+          <t>Trip2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2905,25 +2903,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>truck4</t>
+          <t>truck3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Trip0</t>
+          <t>Trip2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2949,19 +2949,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Delft</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Delft</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -2983,21 +2983,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Delft</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Delft</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3022,18 +3020,18 @@
           <t>Nijmegen</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>hub</t>
         </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3050,12 +3048,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Trip1</t>
+          <t>Trip0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3063,11 +3061,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3084,26 +3082,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Trip1</t>
+          <t>Trip0</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Zaandam</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -3120,24 +3116,24 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trip1</t>
+          <t>Trip0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -3154,20 +3150,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Trip1</t>
+          <t>Trip0</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3193,15 +3191,15 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Ede</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Wageningen</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3227,15 +3225,15 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Ede</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Ede</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3264,18 +3262,18 @@
           <t>Nijmegen</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>hub</t>
         </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3292,12 +3290,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Wageningen</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3305,11 +3303,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Ede</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3326,24 +3324,26 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Trip2</t>
+          <t>Trip1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Arnhem</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3365,19 +3365,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Arnhem</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3467,21 +3467,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -3503,21 +3501,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3529,12 +3525,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>truck5</t>
+          <t>truck4</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Trip0</t>
+          <t>Trip2</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3565,29 +3561,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>truck5</t>
+          <t>truck4</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Trip0</t>
+          <t>Trip2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3609,19 +3607,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amersfort</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amersfort</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -3643,19 +3641,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Amersfort</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Amersfort</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3677,19 +3675,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Amersfort</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Amersfort</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -3711,7 +3709,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3719,11 +3717,13 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Zaandam</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Enkhuizen</t>
+          <t>Haarlem</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3789,11 +3789,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Medemblik</t>
+          <t>Haarlem</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -3815,19 +3815,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Haarlem</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Haarlem</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -3849,19 +3849,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Haarlem</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Haarlem</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -3883,19 +3883,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Nieuwegein</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Nieuwegein</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3917,15 +3917,15 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Medemblik</t>
+          <t>Nieuwegein</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Enkhuizen</t>
+          <t>Nieuwegein</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Delft</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4031,11 +4031,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Delft</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Delft</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4065,11 +4065,13 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Delft</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>hub</t>
+        </is>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4091,7 +4093,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4099,13 +4101,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>hub</t>
-        </is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4127,19 +4127,19 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Schagen</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Schagen</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4161,19 +4161,19 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Schagen</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Schagen</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
